--- a/new.xlsx
+++ b/new.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automatizare_calculul_mediilor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27001E0F-F1FF-4F0E-A9C9-903B3E2AC208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28415"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95B8328F-63CD-469A-855D-30EBC8DA7894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1EF2BFA-16D9-4250-BBAE-23BDA1470EE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +33,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
-    <t>ECM1</t>
+    <t>Medie</t>
+  </si>
+  <si>
+    <t>Materie</t>
+  </si>
+  <si>
+    <t>ECM</t>
   </si>
   <si>
     <t>Seminar</t>
@@ -62,20 +63,14 @@
     <t>TSA</t>
   </si>
   <si>
-    <t>IA1</t>
-  </si>
-  <si>
-    <t>Activitate</t>
-  </si>
-  <si>
-    <t>Materie</t>
+    <t>IA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,130 +434,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E71263-4456-4765-A4C7-1398B7383BF1}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2</v>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
